--- a/utils/data/Borrador_Propuesta catálogo_90 procedimientos.xlsx
+++ b/utils/data/Borrador_Propuesta catálogo_90 procedimientos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpinton\Desktop\PROYECTOS\CABILDO\PROYECTO CONSULTORÍA SUBLOTE P23.10\FASE 2\Propuesta catálogo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yo\Documents\cat-procs-aytos\utils\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AB869076-C4BD-4E4B-ADE1-D37F49E93FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B844332-EECD-46B5-882F-6A6A17BF3D16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446ABCDD-934C-4395-96E3-05C669A1AF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATÁLOGO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CATÁLOGO!$A$4:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CATÁLOGO!$A$4:$M$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,8 +38,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B0CC79D3-238F-40DB-8F09-2574EA80291D}</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{B0CC79D3-238F-40DB-8F09-2574EA80291D}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Descripción tentativa a propuesta de la empresa Adjudicataria. 
+Sujeto a revisión.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="423">
   <si>
     <r>
       <rPr>
@@ -50,7 +69,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">PROYECTO:  </t>
+      <t xml:space="preserve">PLAN DE MODERNIZACIÓN 
+PROYECTO:  </t>
     </r>
     <r>
       <rPr>
@@ -61,14 +81,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SERVICIOS DE CONSULTORÍA PARA LA REVISIÓN Y MEJORA DE PROCEDIMIENTOS EN 19 AYUNTAMIENTOS</t>
+      <t>SERVICIOS DE CONSULTORÍA PARA LA REVISIÓN Y MEJORA DE PROCEDIMIENTOS EN 19 AYUNTAMIENTOS - Sublote P23.10</t>
     </r>
   </si>
   <si>
-    <t>Sublote P23.10</t>
-  </si>
-  <si>
-    <t>Propuesta catálogo común (Preselección)</t>
+    <t>Propuesta catálogo común</t>
   </si>
   <si>
     <t>Clave</t>
@@ -84,6 +101,27 @@
   </si>
   <si>
     <t>Familia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto / Descripción </t>
+  </si>
+  <si>
+    <t>Forma de presentación</t>
+  </si>
+  <si>
+    <t>Plazo de presentación</t>
+  </si>
+  <si>
+    <t>Forma de iniciación</t>
+  </si>
+  <si>
+    <t>Efecto del silencio</t>
+  </si>
+  <si>
+    <t>Órgano de resolución</t>
+  </si>
+  <si>
+    <t>Recursos</t>
   </si>
   <si>
     <t>C001</t>
@@ -111,6 +149,27 @@
     <t>TRANSPARENCIA</t>
   </si>
   <si>
+    <t>Permite a cualquier persona solicitar información pública que esté en poder del Ayuntamiento, como contratos, subvenciones, datos estadísticos o cualquier otra documentación relevante, con el fin de garantizar la transparencia institucional.</t>
+  </si>
+  <si>
+    <t>Electrónica</t>
+  </si>
+  <si>
+    <t>Continuo</t>
+  </si>
+  <si>
+    <t>Solicitud del interesado</t>
+  </si>
+  <si>
+    <t>Desestimatorio</t>
+  </si>
+  <si>
+    <t>Alcaldía</t>
+  </si>
+  <si>
+    <t>Alzada</t>
+  </si>
+  <si>
     <t>C002</t>
   </si>
   <si>
@@ -128,6 +187,12 @@
   </si>
   <si>
     <t>INSTANCIA GENERAL</t>
+  </si>
+  <si>
+    <t>Es el formulario genérico que la ciudadanía puede utilizar para presentar cualquier tipo de solicitud, escrito o comunicación ante el Ayuntamiento, cuando no exista un procedimiento específico previsto para su trámite.</t>
+  </si>
+  <si>
+    <t>Según normativa aplicable</t>
   </si>
   <si>
     <t>C003</t>
@@ -157,6 +222,12 @@
   </si>
   <si>
     <t>POBLACIÓN Y TERRITORIO</t>
+  </si>
+  <si>
+    <t>Permite empadronarse por primera vez o renovar la inscripción en el padrón del municipio, acreditando la residencia en el domicilio habitual. Este trámite es necesario para acceder a muchos servicios públicos y acreditar el lugar de residencia.</t>
+  </si>
+  <si>
+    <t>Estimatorio</t>
   </si>
   <si>
     <t>C004</t>
@@ -198,6 +269,12 @@
     <t>CEMENTERIOS</t>
   </si>
   <si>
+    <t>Se utiliza para cambiar el titular legal de un nicho, sepultura o columbario, generalmente por herencia o cesión. Es importante actualizar esta titularidad para evitar conflictos en el uso de estos espacios.</t>
+  </si>
+  <si>
+    <t>Potestativo de reposición</t>
+  </si>
+  <si>
     <t>C005</t>
   </si>
   <si>
@@ -224,6 +301,9 @@
 - Reglamento (UE) 2016/679 del Parlamento Europeo y del Consejo de 27 de abril de 2016 relativo a la protección de las personas físicas, aplicable desde el 25 de mayo de 2018.  (Art. 6.1 c , 6.1 e)</t>
   </si>
   <si>
+    <t>Permite solicitar la exhumación de restos de una persona fallecida para su traslado, reinhumación o incineración, siempre que se cumplan los plazos y condiciones legales establecidos por la normativa funeraria.</t>
+  </si>
+  <si>
     <t>C006</t>
   </si>
   <si>
@@ -245,6 +325,10 @@
 - Resolución de la Oficina del Censo Electoral, de 24 de febrero de 2006, sobre la repercusión de las bajas de oficio por inscripción indebida en los padrones municipales y procedimiento de control de las altas en el Censo Electoral.</t>
   </si>
   <si>
+    <t>Permite comunicar al Ayuntamiento que una persona ha dejado de residir en el municipio, solicitando su baja del padrón. Esta gestión es importante para mantener actualizados los datos de empadronamiento y evitar duplicidades en otros municipios.
+Permite comunicar al Ayuntamiento que una persona ha dejado de residir en el municipio, solicitando su baja del padrón. Esta gestión es importante para mantener actualizados los datos de empadronamiento y evitar duplicidades en otros municipios.</t>
+  </si>
+  <si>
     <t>C007</t>
   </si>
   <si>
@@ -265,6 +349,9 @@
     <t>ALTA TERCEROS</t>
   </si>
   <si>
+    <t>Permite comunicar al Ayuntamiento los datos bancarios necesarios para recibir pagos mediante transferencia, ya sea por facturas, ayudas, subvenciones u otras obligaciones económicas. A través de este trámite, el interesado se registra como acreedor en la base de datos municipal, indicando una cuenta corriente para los abonos correspondientes.</t>
+  </si>
+  <si>
     <t>C008</t>
   </si>
   <si>
@@ -280,6 +367,10 @@
     <t>PROTECCIÓN DE DATOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Permite a cualquier ciudadano solicitar acceso a los datos personales que el Ayuntamiento pueda tener sobre él, en cumplimiento del derecho a la protección de datos y la normativa vigente. También puede utilizarse para consultar el uso o tratamiento que se está haciendo de dichos datos.
+</t>
+  </si>
+  <si>
     <t>C009</t>
   </si>
   <si>
@@ -297,6 +388,12 @@
   </si>
   <si>
     <t>QUEJAS Y SUGERENCIAS</t>
+  </si>
+  <si>
+    <t>Este canal permite a los ciudadanos expresar sus opiniones, plantear mejoras o comunicar disconformidades sobre los servicios municipales. Contribuye a mejorar la atención pública y fortalece la participación ciudadana en la gestión local.</t>
+  </si>
+  <si>
+    <t>Según normativa</t>
   </si>
   <si>
     <t>C010</t>
@@ -319,6 +416,9 @@
     <t>ANIMALES</t>
   </si>
   <si>
+    <t>Permite obtener la autorización necesaria para poseer y cuidar animales clasificados como potencialmente peligrosos, como ciertos perros de razas específicas. Es obligatorio cumplir requisitos como no tener antecedentes penales, acreditar aptitud física y contratar un seguro de responsabilidad civil.</t>
+  </si>
+  <si>
     <t>C012</t>
   </si>
   <si>
@@ -332,6 +432,9 @@
     <t>INFRAESTRUCTURA VIARIA</t>
   </si>
   <si>
+    <t>Permite a cualquier ciudadano comunicar al Ayuntamiento la existencia de una incidencia, desperfecto o situación anómala en calles, aceras, mobiliario urbano, alumbrado u otros elementos del espacio público, para su revisión y reparación por los servicios municipales.</t>
+  </si>
+  <si>
     <t>C013</t>
   </si>
   <si>
@@ -342,6 +445,9 @@
   </si>
   <si>
     <t>TESORERÍA</t>
+  </si>
+  <si>
+    <t>Este procedimiento permite a empresas o personas interesadas en participar en contratos, licencias o concesiones municipales constituir una garantía económica ante el Ayuntamiento, ya sea mediante aval, depósito u otra fórmula admitida legalmente, asegurando el cumplimiento de obligaciones.</t>
   </si>
   <si>
     <t>C014</t>
@@ -358,13 +464,25 @@
     <t>SUBVENCIONES</t>
   </si>
   <si>
+    <t>Permite a los beneficiarios de una subvención municipal presentar la documentación justificativa del uso correcto de los fondos recibidos, cumpliendo con los plazos y requisitos establecidos en la resolución de concesión o en la normativa aplicable.</t>
+  </si>
+  <si>
     <t>C015</t>
   </si>
   <si>
     <t>Solicitud de Licencia de Conexión a las Redes de Aguas</t>
   </si>
   <si>
+    <t>- Ley 7/2015, de 1 de abril, de los municipios de Canarias. (Norma completa)
+- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas (Arts. 9 y 66)
+- Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local. (Art. 21.1.q, Art. 26)</t>
+  </si>
+  <si>
     <t>AGUA y  RESIDUOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trámite necesario para solicitar la conexión de una vivienda, local o parcela a la red pública de abastecimiento de agua potable o al sistema de saneamiento. Suele requerir proyecto técnico o autorización urbanística previa.
+</t>
   </si>
   <si>
     <t>C016</t>
@@ -385,10 +503,16 @@
     <t>RESPONSABILIDAD PATRIMONIAL</t>
   </si>
   <si>
+    <t>Permite a cualquier persona reclamar una indemnización al Ayuntamiento si ha sufrido daños o perjuicios derivados del funcionamiento normal o anormal de los servicios públicos municipales, siempre que se acrediten los requisitos legales para ello.</t>
+  </si>
+  <si>
     <t>C017</t>
   </si>
   <si>
     <t>Abastecimiento de Aguas (Cambio de Titularidad)</t>
+  </si>
+  <si>
+    <t>Trámite que permite actualizar el nombre de la persona titular del contrato de suministro de agua municipal, por ejemplo, tras una compraventa, herencia o cambio de inquilino. Garantiza que la facturación y las obligaciones estén correctamente asignadas.</t>
   </si>
   <si>
     <t>C018</t>
@@ -409,6 +533,9 @@
     <t>SERVICIOS SOCIALES</t>
   </si>
   <si>
+    <t>Permite a personas mayores, dependientes o en situación de vulnerabilidad solicitar servicios municipales de apoyo, como atención domiciliaria o dispositivos de teleasistencia, con el fin de favorecer su autonomía personal y mejorar su calidad de vida.</t>
+  </si>
+  <si>
     <t>C019</t>
   </si>
   <si>
@@ -427,6 +554,9 @@
     <t>GESTIÓN FISCAL Y TRIBUTARIA</t>
   </si>
   <si>
+    <t>Este procedimiento permite autorizar al Ayuntamiento a cargar en una cuenta bancaria los pagos periódicos de tasas, impuestos u otros servicios municipales, facilitando su abono de manera automática y segura.</t>
+  </si>
+  <si>
     <t>C020</t>
   </si>
   <si>
@@ -435,6 +565,9 @@
   <si>
     <t>- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Pública. (Arts. 9 y 66)
 - Reglamento General de las actuaciones y los procedimientos de gestión e inspección tributaria y de desarrollo de las normas comunes de los procedimientos de aplicación de los tributos aprobado por Real Decreto 1065/2007, de 27 de julio (Art. 33.3)</t>
+  </si>
+  <si>
+    <t>Permite a la persona beneficiaria solicitar un documento oficial que acredite que le ha sido concedida una subvención municipal, con indicación del importe, la finalidad y la fecha de concesión. Es útil para justificar la ayuda ante otras administraciones.</t>
   </si>
   <si>
     <t>C021</t>
@@ -453,6 +586,9 @@
     <t>POLICÍA LOCAL Y PROTECCIÓN CIVIL</t>
   </si>
   <si>
+    <t>Permite obtener una tarjeta municipal para el uso y posesión de armas no reglamentadas, como escopetas de aire comprimido o armas utilizadas para actividades deportivas o de caza, cumpliendo los requisitos legales y de seguridad establecidos.</t>
+  </si>
+  <si>
     <t>C022</t>
   </si>
   <si>
@@ -461,6 +597,9 @@
   <si>
     <t>- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas. (Arts. 9 y 66)
 - Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local</t>
+  </si>
+  <si>
+    <t>Trámite para solicitar la baja del contrato de suministro de agua en un inmueble, ya sea por cese de la actividad, mudanza o demolición del edificio. Implica la interrupción del servicio y la cancelación de facturación.</t>
   </si>
   <si>
     <t>C023</t>
@@ -474,6 +613,9 @@
 - Real Decreto 287/2002, de 22 de marzo, por el que se desarrolla la Ley 50/1999, de 23 de diciembre, sobre el régimen jurídico de la tenencia de animales potencialmente peligrosos. (Norma completa)</t>
   </si>
   <si>
+    <t>Permite inscribir, actualizar o dar de baja a un animal en el registro municipal, asegurando que los datos estén actualizados. Suele incluir información sobre el microchip, el estado sanitario y la titularidad del animal.</t>
+  </si>
+  <si>
     <t>C024</t>
   </si>
   <si>
@@ -486,6 +628,9 @@
   <si>
     <t>- Ley 58/2003, de 17 de diciembre, General Tributaria. (Norma Completa)
 - Real Decreto Legislativo 2/2004, de 5 de marzo, por el que se aprueba el texto refundido de la Ley Reguladora de las Haciendas Locales (Arts. 104 y sig.)</t>
+  </si>
+  <si>
+    <t>Trámite que permite a los ciudadanos o empresas calcular y abonar directamente una tasa o impuesto municipal, como puede ser el ICIO, licencias urbanísticas o actividades económicas. Se realiza normalmente mediante modelo normalizado.</t>
   </si>
   <si>
     <t>C025</t>
@@ -506,6 +651,9 @@
 - Decreto 2263/1974, de 20 de julio, por el que se aprueba el reglamento de policía sanitaria mortuoria (Norma completa)</t>
   </si>
   <si>
+    <t>Permite solicitar al Ayuntamiento el uso de un espacio en el cementerio (nicho, sepultura o columbario) para inhumaciones, reducciones o traslados de restos, ya sea de manera temporal o permanente, cumpliendo con la normativa vigente.</t>
+  </si>
+  <si>
     <t>C026</t>
   </si>
   <si>
@@ -519,6 +667,9 @@
 - Resolución de 29 de abril de 2020, de la Subsecretaría, por la que se publica la Resolución de 17 de febrero de 2020, de la Presidencia del Instituto Nacional de Estadística y de la Dirección General de Cooperación Autonómica y Local, por la que se dictan instrucciones técnicas a los Ayuntamientos sobre la gestión del Padrón municipal. (Norma completa)</t>
   </si>
   <si>
+    <t>Documento oficial que acredita el lugar y la fecha en la que una persona está empadronada en el municipio. Es necesario para multitud de trámites administrativos, como escolarización, ayudas sociales o renovación de documentos.</t>
+  </si>
+  <si>
     <t>C027</t>
   </si>
   <si>
@@ -537,22 +688,40 @@
     <t>- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas (Norma Completa)</t>
   </si>
   <si>
+    <t>Permite entregar un objeto hallado en la vía pública o en espacios municipales a la Oficina de Objetos Perdidos del Ayuntamiento, donde será registrado y custodiado hasta que lo reclame su propietario, según los plazos legales establecidos.</t>
+  </si>
+  <si>
+    <t>Presencial</t>
+  </si>
+  <si>
     <t>C029</t>
   </si>
   <si>
     <t>Corte de la Vía Pública</t>
   </si>
   <si>
+    <t>Trámite necesario para solicitar la autorización de ocupación o corte temporal de calles o aceras por motivos como obras, mudanzas, eventos o rodajes. Requiere indicar el tiempo, lugar y justificación del corte para su evaluación técnica.</t>
+  </si>
+  <si>
     <t>C030</t>
   </si>
   <si>
     <t>Declaración Responsable</t>
   </si>
   <si>
+    <t>Permite iniciar ciertas actividades o realizar obras sin necesidad de licencia previa, mediante una declaración firmada por el interesado que asegura cumplir todos los requisitos legales y técnicos. Implica la asunción de responsabilidad sobre lo declarado.</t>
+  </si>
+  <si>
     <t>C031</t>
   </si>
   <si>
     <t>Ejercicio de los Derechos de Rectificación, Supresión, Limitación, Portabilidad u Oposición en relación con Datos de Carácter Personal</t>
+  </si>
+  <si>
+    <t>Permite a los ciudadanos ejercer sus derechos en materia de protección de datos ante el Ayuntamiento, solicitando, por ejemplo, la modificación, eliminación, limitación o traslado de sus datos personales que estén en poder de la administración municipal.</t>
+  </si>
+  <si>
+    <t>No tiene</t>
   </si>
   <si>
     <t>C032</t>
@@ -568,6 +737,9 @@
   </si>
   <si>
     <t>URBANISMO</t>
+  </si>
+  <si>
+    <t>Este trámite permite obtener la autorización municipal necesaria para aprovechar bienes de dominio público, como el uso temporal del suelo, subsuelo o vuelo, ya sea para actividades comerciales, obras o instalaciones eventuales.</t>
   </si>
   <si>
     <t>C033</t>
@@ -589,6 +761,9 @@
     <t>SERVICIOS BÁSICOS</t>
   </si>
   <si>
+    <t>Permite solicitar la transmisión de una licencia de auto-taxi de un titular a otro, por motivos como jubilación, fallecimiento o compraventa, asegurando que el nuevo titular cumpla con los requisitos legales y reglamentarios.</t>
+  </si>
+  <si>
     <t>C034</t>
   </si>
   <si>
@@ -597,6 +772,9 @@
   <si>
     <t>- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas. (Arts. 9 y 66)
 - Ley 16/1987, de 30 de julio, de Ordenación de los Transportes Terrestres. (Norma Completa)</t>
+  </si>
+  <si>
+    <t>Trámite que autoriza la circulación o utilización de vehículos especiales, como los destinados a obras, maquinaria agrícola o transportes fuera de norma. Es necesario para garantizar la seguridad y el cumplimiento de la normativa de tráfico.</t>
   </si>
   <si>
     <t>C035</t>
@@ -608,6 +786,9 @@
     <t>- Ley 11/2022, de 28 de junio, General de Telecomunicaciones. (Norma Completa)
 - Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común. (Art. 66)
 - Real Decreto 2159/1978, de 23 de junio, por el que se aprueba el Reglamento de Planeamiento para el desarrollo y aplicación de la Ley sobre Régimen del Suelo y Ordenación Urbana. (Norma Completa)</t>
+  </si>
+  <si>
+    <t>Permite solicitar cambios en instrumentos de planeamiento urbanístico que desarrollan el Plan General, como planes parciales o especiales. La modificación debe justificarse por razones técnicas, sociales o de interés general.</t>
   </si>
   <si>
     <t>C036</t>
@@ -623,6 +804,9 @@
 - Decreto de 17 de junio de 1955 por el que se aprueba el Reglamento de Servicios de las Corporaciones locales. (Art. 9)</t>
   </si>
   <si>
+    <t>Trámite que permite modificar los términos de una licencia de ocupación ya concedida, renunciar a ella voluntariamente o solicitar su revocación por causas justificadas. Está vinculado a la utilización de bienes públicos o privados con fines específicos.</t>
+  </si>
+  <si>
     <t>C037</t>
   </si>
   <si>
@@ -636,6 +820,10 @@
   </si>
   <si>
     <t>PARTICIPACIÓN CIUDADANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este procedimiento permite proponer al Ayuntamiento la convocatoria de una consulta ciudadana sobre un asunto de especial relevancia local. Su objetivo es fomentar la participación y recoger la opinión directa de la ciudadanía.
+</t>
   </si>
   <si>
     <t>C038</t>
@@ -651,6 +839,9 @@
 - Real Decreto 128/2018, de 16 de marzo, por el que se regula el régimen jurídico de los funcionarios de Administración Local con habilitación de carácter nacional (Art. 5.2.a)</t>
   </si>
   <si>
+    <t>Permite a personas físicas o jurídicas solicitar que se les conceda más tiempo para pagar sus deudas tributarias municipales, ya sea en un único pago aplazado o dividido en varios plazos, bajo determinadas condiciones.</t>
+  </si>
+  <si>
     <t>C039</t>
   </si>
   <si>
@@ -662,6 +853,9 @@
 - Real Decreto Legislativo 7/2015, de 30 de octubre, por el que se aprueba el texto refundido de la Ley de Suelo y Rehabilitación Urbana. (Norma Completa)</t>
   </si>
   <si>
+    <t>Trámite mediante el cual promotores, particulares o entidades pueden solicitar la aprobación de instrumentos urbanísticos que desarrollan el planeamiento general, como planes parciales, estudios de detalle o proyectos de urbanización.</t>
+  </si>
+  <si>
     <t>C040</t>
   </si>
   <si>
@@ -672,13 +866,25 @@
 - Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local. (Art. 21.1.s)</t>
   </si>
   <si>
+    <t>Procedimiento genérico para solicitar al Ayuntamiento un permiso para realizar una actuación concreta que requiera autorización expresa, como actividades temporales, instalaciones, usos del dominio público u otras situaciones previstas por la normativa.</t>
+  </si>
+  <si>
     <t>C041</t>
   </si>
   <si>
     <t>Solicitud de Cambio de Puesto de Trabajo</t>
   </si>
   <si>
+    <t>- Real Decreto Legislativo Real Decreto Legislativo 2/2015, de 23 de octubre, por el que se aprueba el texto refundido de la Ley del Estatuto de los Trabajadores. (Norma Completa)
+- Real Decreto Legislativo 5/2015, de 30 de octubre, por el que se aprueba el texto refundido de la Ley del Estatuto Basico del Empleado Publico. (Norma Completa)
+- Real Decreto Legislativo 8/2015, de 30 de octubre, por el que se aprueba el texto refundido de la Ley General de la Seguridad Social. (Norma Completa)
+- Real Decreto 364/1995, de 10 de marzo, por el que se aprueba el Reglamento General de Ingreso del Personal al Servicio de la Administración General del Estado y de Provisión de puestos de trabajo y Promoción Profesional de los Funcionarios Civiles de la Administración General del Estado. (Norma Completa)</t>
+  </si>
+  <si>
     <t>RECURSOS HUMANOS</t>
+  </si>
+  <si>
+    <t>Permite a empleados públicos del Ayuntamiento presentar una petición formal para cambiar de puesto dentro de la organización, ya sea por motivos personales, profesionales o de salud, dentro del marco de la normativa laboral.</t>
   </si>
   <si>
     <t>C042</t>
@@ -694,6 +900,9 @@
 </t>
   </si>
   <si>
+    <t>Trámite que permite solicitar al Ayuntamiento la expedición de un certificado o informe oficial relacionado con hechos administrativos, normativos o urbanísticos, necesario para acreditar una situación ante otras administraciones o particulares.</t>
+  </si>
+  <si>
     <t>C043</t>
   </si>
   <si>
@@ -705,6 +914,9 @@
 - Reglamento General de la Ley de Contratos de las Administraciones Publicas aprobado por Real Decreto 1098/2001, de 12 de octubre (Art. 169, Art. 65)</t>
   </si>
   <si>
+    <t>Permite recuperar una garantía económica previamente constituida ante el Ayuntamiento, una vez cumplidas las condiciones del contrato, licencia o actuación que la motivó. Suele requerir informe técnico favorable y comprobación de cumplimiento.</t>
+  </si>
+  <si>
     <t>C044</t>
   </si>
   <si>
@@ -712,6 +924,9 @@
   </si>
   <si>
     <t>- Ley 58/2003, de 17 de diciembre, General Tributaria. (Norma Completa)</t>
+  </si>
+  <si>
+    <t>Permite reclamar la devolución de un pago efectuado al Ayuntamiento por error, duplicidad, exceso u otra causa justificada. Debe acreditarse documentalmente y tramitarse dentro de los plazos legales establecidos.</t>
   </si>
   <si>
     <t>C045</t>
@@ -739,6 +954,9 @@
 - Decreto de 17 de junio de 1955, por el que se aprueba el Reglamento de Servicios de las Corporaciones Locales. (Art. 9)</t>
   </si>
   <si>
+    <t>Trámite necesario para acreditar que una edificación o vivienda cumple con las condiciones de habitabilidad y puede ser utilizada legalmente. Es requisito habitual para contratar suministros o registrar la vivienda en el padrón.</t>
+  </si>
+  <si>
     <t>C046</t>
   </si>
   <si>
@@ -750,6 +968,9 @@
   </si>
   <si>
     <t>ACTIVIDAD ECONÓMICA Y CONSUMO</t>
+  </si>
+  <si>
+    <t>Este procedimiento permite solicitar la intervención de un servicio municipal de mediación para resolver conflictos vecinales, familiares o comunitarios de forma pacífica, evitando recurrir a vías judiciales.</t>
   </si>
   <si>
     <t>C047</t>
@@ -783,6 +1004,12 @@
 - Resolución de 17 de noviembre 2005, de la Subsecretaría, por la que se dispone la publicación de la Resolución del Instituto Nacional de Estadística y de la Dirección General para la Administración Local, por la que se dictan instrucciones técnicas a los Ayuntamientos sobre la revisión anual del Padrón municipal y sobre el procedimiento de obtención de la propuesta de cifras oficiales de población. (BOE nº 280, 23.11.2005).</t>
   </si>
   <si>
+    <t>Permite actualizar datos personales o familiares registrados en el padrón municipal, como nombre, apellidos, nacionalidad o nivel de estudios, garantizando que la información administrativa esté al día.</t>
+  </si>
+  <si>
+    <t>Alcalde</t>
+  </si>
+  <si>
     <t>C048</t>
   </si>
   <si>
@@ -809,6 +1036,9 @@
 - Decreto Legislativo 1/2000, de 8 de mayo, por el que se aprueba el Texto Refundido de las Leyes de Ordenación del Territorio de Canarias y de Espacios Naturales de Canarias. (Art. 166 y ss., Art. 62, Art. 63.1.c, Arts. 166-172, Arts. 80-83)</t>
   </si>
   <si>
+    <t>Permite modificar las condiciones de una licencia urbanística ya concedida o renunciar a ella si finalmente no se va a ejecutar la actuación. Requiere justificación técnica y puede implicar revisiones por parte de los servicios municipales.</t>
+  </si>
+  <si>
     <t>C049</t>
   </si>
   <si>
@@ -817,6 +1047,10 @@
   <si>
     <t>- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas (Arts. 9 y 66)
 - Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local (Norma Completa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trámite para acceder a los recursos que ofrece el Ayuntamiento en materia de servicios sociales, como atención domiciliaria, ayudas económicas, apoyo a la dependencia o intervención familiar, previa valoración por profesionales.
+</t>
   </si>
   <si>
     <t>C050</t>
@@ -835,6 +1069,9 @@
 - Decreto 183/2004, de 21 de diciembre, por el que se aprueba el Reglamento de gestión y ejecución del sistema de planeamiento de Canarias. (Arts. 226 -231)</t>
   </si>
   <si>
+    <t>Permite solicitar que el Ayuntamiento recepcione formalmente unas obras de urbanización ya ejecutadas, como calles, redes de servicios o zonas verdes, para su incorporación al dominio público y mantenimiento municipal.</t>
+  </si>
+  <si>
     <t>C051</t>
   </si>
   <si>
@@ -848,6 +1085,9 @@
   </si>
   <si>
     <t>PATRIMONIO</t>
+  </si>
+  <si>
+    <t>Trámite que permite pedir la utilización temporal y específica de un bien de titularidad municipal, como locales, plazas o espacios públicos, para actividades culturales, deportivas, comerciales o vecinales.</t>
   </si>
   <si>
     <t>C052</t>
@@ -861,6 +1101,9 @@
 - Real Decreto de 24 de julio de 1889 por el que se publica el Código Civil. (Art. 49, Art. 51, Art. 62, Arts. 56-58, Arts. 66-68)
 - Decreto de 14 de noviembre de 1958 por el que se aprueba el Reglamento de la Ley del Registro Civil. (Arts. 238-262)
 - Instrucción de 9 de julio de 2021, de la Dirección General de Seguridad Jurídica y Fe Pública, sobre la intervención del Ministerio Fiscal en los procedimientos del Registro Civil tras la entrada en vigor de la Ley 20/2011, de 21 de julio, del Registro Civil. (Norma completa)</t>
+  </si>
+  <si>
+    <t>Permite a las parejas solicitar la celebración de su matrimonio civil en el Ayuntamiento, eligiendo fecha, lugar y modalidad, y aportando la documentación necesaria para tramitar el expediente matrimonial.</t>
   </si>
   <si>
     <t>C053</t>
@@ -877,6 +1120,9 @@
 - Resolución de 9 de diciembre de 2015, de la Intervención General de la Administración del Estado, por la que se regula el contenido y periodicidad de la información a suministrar a la nueva Base de Datos Nacional de Subvenciones. (Norma completa)</t>
   </si>
   <si>
+    <t>Trámite mediante el cual determinadas personas, entidades o asociaciones pueden solicitar o gestionar subvenciones otorgadas directamente por el Ayuntamiento, sin concurrencia competitiva, por razones de interés público.</t>
+  </si>
+  <si>
     <t>C054</t>
   </si>
   <si>
@@ -890,6 +1136,9 @@
 - Real Decreto 763/1979, de 16 de marzo, por el que se aprueba el Reglamento Nacional de los Servicios Urbanos e Interurbanos de Transportes en Automóviles Ligeros. (Art. 3, Art. 4)</t>
   </si>
   <si>
+    <t>Permite cambiar el vehículo asociado a una licencia de taxi, normalmente por renovación, mejora de condiciones técnicas o adecuación a normativa ambiental. Requiere que el nuevo vehículo cumpla los requisitos municipales.</t>
+  </si>
+  <si>
     <t>C055</t>
   </si>
   <si>
@@ -899,6 +1148,9 @@
     <t>- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas. (Arts. 9 y 66)
 - Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local. (Norma Completa)
 - Ley 8/1989, de 13 de abril, de Tasas y Precios Públicos. (Norma Completa)</t>
+  </si>
+  <si>
+    <t>Trámite que permite solicitar al Ayuntamiento la revisión, lectura oficial o reubicación de un contador de agua, ya sea por avería, discrepancia en el consumo o modificación de la instalación.</t>
   </si>
   <si>
     <t>C056</t>
@@ -918,16 +1170,25 @@
     <t>FERIAS, ABASTOS, MERCADOS, ETC.</t>
   </si>
   <si>
+    <t>Permite obtener la autorización necesaria para ejercer la venta de productos fuera de un establecimiento fijo, como en mercados, ferias o vía pública, cumpliendo con las condiciones sanitarias, fiscales y de orden público.</t>
+  </si>
+  <si>
     <t>C057</t>
   </si>
   <si>
     <t>Baja Voluntaria de la Autorización para el Ejercicio de la Venta Ambulante</t>
   </si>
   <si>
+    <t>Trámite que permite al titular de una autorización para venta ambulante renunciar voluntariamente a dicha actividad, notificando al Ayuntamiento la baja del permiso y cesando la actividad de forma legal.</t>
+  </si>
+  <si>
     <t>C058</t>
   </si>
   <si>
     <t>Comunicación del Cambio de Datos que figuran en el Padrón Fiscal</t>
+  </si>
+  <si>
+    <t>Este procedimiento permite a los contribuyentes comunicar al Ayuntamiento cualquier cambio en sus datos fiscales, como la dirección, la actividad económica o el régimen fiscal, asegurando que la información esté actualizada para el correcto cumplimiento de las obligaciones tributarias.</t>
   </si>
   <si>
     <t>C059</t>
@@ -939,6 +1200,9 @@
     <t>- Directiva (UE) 2016/2102 del Parlamento Europeo y del Consejo, de 26 de octubre de 2016, sobre la accesibilidad de los sitios web y aplicaciones para dispositivos móviles de los organismos del sector público. (Norma Completa)
 - Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común. (Arts. 9 y 66)
 - Real Decreto 1112/2018, de 7 de septiembre, sobre accesibilidad de los sitios web y aplicaciones para dispositivos móviles del sector público (Norma Completa)</t>
+  </si>
+  <si>
+    <t>Permite a los ciudadanos y entidades informar al Ayuntamiento sobre la necesidad de adaptar espacios, edificios o servicios a los requisitos de accesibilidad para personas con discapacidad, promoviendo la inclusión y el cumplimiento de la normativa de accesibilidad.</t>
   </si>
   <si>
     <t>C060</t>
@@ -953,6 +1217,9 @@
 - Reglamento de organización, funcionamiento y régimen jurídico de las Entidades locales aprobado por Real Decreto 2568/1986, de 28 de noviembre (Arts. 232-236)</t>
   </si>
   <si>
+    <t>Trámite que permite a las personas o entidades ejercer sus derechos relacionados con el Registro de Asociaciones, como la inscripción, modificación o cancelación de asociaciones sin ánimo de lucro, garantizando su cumplimiento con los requisitos legales.</t>
+  </si>
+  <si>
     <t>C061</t>
   </si>
   <si>
@@ -963,6 +1230,9 @@
 - Ley Orgánica 3/2018, de 5 de diciembre, de Protección de Datos Personales y garantía de los derechos digitales. (Art. 13)
 - Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas. (Arts. 9 y 66)
 - Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local. (Art. 21.1.s)</t>
+  </si>
+  <si>
+    <t>Permite a los ciudadanos contactar directamente con el Delegado de Protección de Datos del Ayuntamiento para resolver dudas, consultas o incidencias relacionadas con el tratamiento de datos personales por parte de la administración municipal.</t>
   </si>
   <si>
     <t>C062</t>
@@ -978,6 +1248,10 @@
 - Real Decreto Legislativo 1/2013, de 29 de noviembre, por el que se aprueba el Texto Refundido de la Ley General de derechos de las personas con discapacidad y de su inclusión social. (Norma completa)</t>
   </si>
   <si>
+    <t xml:space="preserve">Este procedimiento permite solicitar el ingreso en centros de asistencia social municipales para personas en situación de vulnerabilidad, como personas mayores, dependientes o en riesgo de exclusión social, con el fin de recibir atención y apoyo especializado.
+</t>
+  </si>
+  <si>
     <t>C063</t>
   </si>
   <si>
@@ -989,6 +1263,12 @@
   </si>
   <si>
     <t>PROMOCIÓN DE LA CULTURA</t>
+  </si>
+  <si>
+    <t>Trámite que permite a los ciudadanos inscribirse en actividades y cursos organizados por el Ayuntamiento, como talleres, formaciones, cursos de idiomas, deportes o actividades culturales, para promover el desarrollo personal y social.</t>
+  </si>
+  <si>
+    <t>Sujeto a anuncio general y convocatoria</t>
   </si>
   <si>
     <t>C064</t>
@@ -1002,6 +1282,9 @@
 - Reglamento de organización, funcionamiento y régimen jurídico de las Entidades locales aprobado por Real Decreto 2568/1986, de 28 de noviembre (Arts. 209-211</t>
   </si>
   <si>
+    <t>Permite presentar un recurso ante el Ayuntamiento contra actos administrativos. El recurso permite la revisión de la decisión o actuación administrativa y puede incluir alegaciones y pruebas.</t>
+  </si>
+  <si>
     <t>C065</t>
   </si>
   <si>
@@ -1011,6 +1294,10 @@
     <t>- Ley 29/1998, de 13 de julio, reguladora de la Jurisdicción Contencioso-administrativa. (Art. 29)
 - Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Comun de las Administraciones Publicas. 
 - Reglamento de organización, funcionamiento y régimen jurídico de las Entidades locales aprobado por Real Decreto 2568/1986, de 28 de noviembre (Arts. 209-212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este recurso permite impugnar una resolución administrativa relacionada con los tributos municipales, como liquidaciones, sanciones o exenciones, solicitando su revisión en el plazo establecido por la normativa tributaria.
+</t>
   </si>
   <si>
     <t>C066</t>
@@ -1025,6 +1312,9 @@
 - Real Decreto Legislativo 1/2016, de 16 de diciembre, por el que se aprueba el texto refundido de la Ley de prevención y control integrados de la contaminación. (Norma completa)
 - Real Decreto 815/2013, de 18 de octubre, por el que se aprueba el Reglamento de emisiones industriales y de desarrollo de la Ley 16/2002, de 1 de julio, de prevención y control integrados de la contaminación. (Art. 14)
 - Decreto de 17 de junio de 1955 por el que se aprueba el Reglamento de Servicios de las Corporaciones locales. (Art. 9)</t>
+  </si>
+  <si>
+    <t>Permite modificar o renunciar a una licencia de actividad previamente otorgada por el Ayuntamiento, ya sea por cambios en la actividad, en las condiciones de desarrollo o por decisión del titular. Es obligatorio cumplir con los requisitos de la normativa local.</t>
   </si>
   <si>
     <t>C067</t>
@@ -1046,10 +1336,16 @@
 - Decreto de 17 de junio de 1955 por el que se aprueba el Reglamento de Servicios de las Corporaciones locales. (Art. 9)</t>
   </si>
   <si>
+    <t>Este trámite autoriza la realización de actividades públicas y espectáculos en espacios municipales o privados, asegurando que se cumplan con las normativas de seguridad, salud y ruido, y proporcionando las condiciones adecuadas para su desarrollo.</t>
+  </si>
+  <si>
     <t>C068</t>
   </si>
   <si>
     <t>Liquidación (a Instancia de Parte)</t>
+  </si>
+  <si>
+    <t>Permite al ciudadano solicitar la liquidación de impuestos o tasas municipales cuando no se haya efectuado previamente, o en caso de que sea necesario realizar ajustes, como en el caso de modificaciones de actividad o valor.</t>
   </si>
   <si>
     <t>C069</t>
@@ -1067,6 +1363,9 @@
 - Real Decreto Legislativo 781/1986, de 18 de abril, por el que se aprueba el texto refundido de las disposiciones legales vigentes en materia de Régimen Local. (Art. 56)</t>
   </si>
   <si>
+    <t>Este procedimiento permite a la ciudadanía participar activamente en la elaboración de nuevas normativas locales, contribuyendo con sugerencias, comentarios o propuestas sobre proyectos de leyes, ordenanzas o regulaciones municipales.</t>
+  </si>
+  <si>
     <t>C070</t>
   </si>
   <si>
@@ -1082,6 +1381,9 @@
 - Decreto-Legislativo 1/2000, de 8 de mayo, por el que se aprueba el Texto Refundido de las Leyes de Ordenación del Territorio de Canarias y de Espacios Naturales de Canarias. (Norma Completa)</t>
   </si>
   <si>
+    <t>Permite solicitar cambios en el Planeamiento General de la ciudad, como modificaciones en el uso del suelo, urbanización, edificabilidad o zonas verdes, con el fin de adaptarlo a las necesidades del desarrollo urbano o a nuevas circunstancias.</t>
+  </si>
+  <si>
     <t>C071</t>
   </si>
   <si>
@@ -1093,10 +1395,16 @@
 - Real Decreto 1112/2018, de 7 de septiembre, sobre accesibilidad de los sitios web y aplicaciones para dispositivos móviles del sector público. (Norma Completa)</t>
   </si>
   <si>
+    <t>Permite presentar una reclamación cuando no se haya proporcionado información accesible de manera adecuada o conforme a la normativa, solicitando que se subsanen los errores o se entregue la información de forma comprensible.</t>
+  </si>
+  <si>
     <t>C072</t>
   </si>
   <si>
     <t>Reclamaciones de Consumo</t>
+  </si>
+  <si>
+    <t>Trámite mediante el cual los ciudadanos pueden presentar reclamaciones por productos o servicios adquiridos que no cumplen con los derechos del consumidor, como productos defectuosos, servicios no prestados o cláusulas abusivas en contratos.</t>
   </si>
   <si>
     <t>C073</t>
@@ -1107,6 +1415,9 @@
   <si>
     <t>- Ley Orgánica 2/2006, de 3 de mayo, de Educacion. (Norma completa)
 - Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas. (Art. 41)</t>
+  </si>
+  <si>
+    <t>Permite gestionar el alta, baja o modificación de contratos de servicios públicos municipales, como agua, electricidad, gas o telefonía, asegurando la correcta gestión de estos suministros en función de las necesidades de los usuarios.</t>
   </si>
   <si>
     <t>C074</t>
@@ -1119,6 +1430,9 @@
 - Ley 40/2015, de 1 de octubre, de Régimen Jurídico del Sector Público. (Norma completa)
 - Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local. (Art. 18.1.e)
 - Real Decreto 2568/1986, de 28 de noviembre, por el que se aprueba el Reglamento de Organización, Funcionamiento y Régimen Jurídico de las Entidades Locales. (Norma completa)</t>
+  </si>
+  <si>
+    <t>Este procedimiento permite a los ciudadanos solicitar el acceso a una notificación que ha sido rechazada por no haber sido recibida correctamente, ya sea por problemas de dirección, errores administrativos u otros motivos.</t>
   </si>
   <si>
     <t>C075</t>
@@ -1141,6 +1455,9 @@
 - Decreto 183/2004, de 21 de diciembre, por el que se aprueba el Reglamento de gestión y ejecución del sistema de planeamiento de Canarias. (Arts. 226 -231)</t>
   </si>
   <si>
+    <t>Permite solicitar la intervención del Ayuntamiento para llevar a cabo un acto relacionado con la urbanización o el desarrollo de un área, como el proyecto de urbanización, la adecuación de espacios públicos o la mejora de infraestructuras.</t>
+  </si>
+  <si>
     <t>C076</t>
   </si>
   <si>
@@ -1148,6 +1465,9 @@
   </si>
   <si>
     <t>- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas</t>
+  </si>
+  <si>
+    <t>Permite solicitar la inclusión en el sistema de arbitraje del Ayuntamiento, una alternativa para resolver conflictos sin recurrir a la vía judicial. Este sistema ofrece un método rápido y efectivo para resolver disputas entre ciudadanos o entidades.</t>
   </si>
   <si>
     <t>C077</t>
@@ -1164,6 +1484,9 @@
     <t>- Ley 38/2003, de 17 de noviembre, General de Subvenciones (Art. 13)
 - Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas (Arts. 9 y 66)
 - Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local (Art. 25.2)</t>
+  </si>
+  <si>
+    <t>Permite solicitar el acceso a los servicios sociales municipales, como atención a la dependencia, ayudas económicas, apoyo a personas en situación de vulnerabilidad, o programas de integración social, previa valoración del caso por profesionales.</t>
   </si>
   <si>
     <t>C078</t>
@@ -1182,6 +1505,9 @@
 - Decreto 183/2004, de 21 de diciembre, por el que se aprueba el Reglamento de gestión y ejecución del sistema de planeamiento de Canarias. (Arts. 226 -231)</t>
   </si>
   <si>
+    <t>Este trámite permite a los promotores o propietarios de terrenos presentar un proyecto de compensación urbanística para su aprobación, con el fin de cumplir con los requisitos de urbanización establecidos por el Ayuntamiento en los terrenos afectados.</t>
+  </si>
+  <si>
     <t>C079</t>
   </si>
   <si>
@@ -1192,10 +1518,16 @@
 - Real Decreto Legislativo 2/2004, de 5 de marzo, por el que se aprueba el texto refundido de la Ley Reguladora de las Haciendas Locales (Arts. 62, 73 y 74)</t>
   </si>
   <si>
+    <t>Permite solicitar una bonificación o exención de impuestos municipales, como el IBI, tasas o impuestos sobre actividades económicas, en casos especiales como la situación económica del solicitante, actividades de interés público o bonificaciones por familia numerosa.</t>
+  </si>
+  <si>
     <t>C080</t>
   </si>
   <si>
     <t>Solicitud de Certificado de Deuda a mi Favor</t>
+  </si>
+  <si>
+    <t>Permite a un ciudadano solicitar un certificado que indique el saldo a favor de una deuda tributaria o administrativa, como resultado de pagos realizados en exceso o deudas pendientes con el Ayuntamiento.</t>
   </si>
   <si>
     <t>C081</t>
@@ -1217,6 +1549,9 @@
 - Reglamento de emisiones industriales y de desarrollo de la Ley 16/2002, de 1 de julio, de prevención y control integrados de la contaminación aprobado por Real Decreto 815/2013, de 18 de octubre (Norma completa)</t>
   </si>
   <si>
+    <t>Este procedimiento permite obtener un certificado o informe oficial que acredite la situación urbanística de un inmueble, como su clasificación, uso permitido o la existencia de cargas urbanísticas que puedan afectar su desarrollo.</t>
+  </si>
+  <si>
     <t>C082</t>
   </si>
   <si>
@@ -1224,6 +1559,9 @@
   </si>
   <si>
     <t>PROBLACIÓN Y TERRITORIO</t>
+  </si>
+  <si>
+    <t>Permite solicitar un documento oficial que acredita que una persona reside en un determinado domicilio junto a otras, utilizado para diversos trámites como empadronamientos, solicitudes de ayudas sociales o procedimientos judiciales.</t>
   </si>
   <si>
     <t>C083</t>
@@ -1244,6 +1582,9 @@
     <t>ARCHIVO</t>
   </si>
   <si>
+    <t>Este trámite permite acceder a los fondos archivísticos municipales, como documentos históricos, planos o actas, para su consulta con fines de investigación, información o interés personal.</t>
+  </si>
+  <si>
     <t>C084</t>
   </si>
   <si>
@@ -1257,6 +1598,9 @@
 - Ley 7/1985, de 2 de abril, reguladora de las Bases del Régimen Local. (Arts. 21, 22, 110)</t>
   </si>
   <si>
+    <t>Permite solicitar la nulidad de un acto administrativo tributario, como una liquidación, sanción o actuación administrativa, que se considere nulo de pleno derecho por vicios o errores en el procedimiento o en la base legal.</t>
+  </si>
+  <si>
     <t>C085</t>
   </si>
   <si>
@@ -1269,6 +1613,9 @@
 - Reglamento General de las Actuaciones y los Procedimientos de Gestión e Inspección Tributaria y de Desarrollo de las Normas Comunes de los Procedimientos de Aplicación de los Tributos, aprobado por Real Decreto 1065/2007, de 27 de julio. (Arts. 131 y 132)</t>
   </si>
   <si>
+    <t>Este procedimiento permite solicitar la devolución de ingresos indebidos derivados de tributos municipales, como impuestos o tasas pagadas por error o exceso, en base a la normativa fiscal establecida.</t>
+  </si>
+  <si>
     <t>C086</t>
   </si>
   <si>
@@ -1276,6 +1623,9 @@
   </si>
   <si>
     <t>- Ley 39/2015, de 1 de octubre, del Procedimiento Administrativo Común de las Administraciones Públicas. (Norma Completa)</t>
+  </si>
+  <si>
+    <t>Permite a los residentes en zonas de estacionamiento regulado solicitar una tarjeta que les permita aparcar sin limitación de tiempo en dichas zonas, con el fin de facilitar el aparcamiento en su vecindario.</t>
   </si>
   <si>
     <t>C087</t>
@@ -1309,10 +1659,16 @@
 - Orden de 27 de mayo de 1958 por la que se fija la superficie de la unidad mínima de cultivo para cada uno de los términos municipales de las distintas provincias españolas. (Norma completa)</t>
   </si>
   <si>
+    <t>Trámite necesario para obtener la licencia o autorización correspondiente para llevar a cabo actividades o obras de construcción, rehabilitación o modificación en terrenos o edificios, conforme a la normativa urbanística municipal.</t>
+  </si>
+  <si>
     <t>C088</t>
   </si>
   <si>
     <t>Solicitud de Reuniones y Entrevistas con el Personal de esta Entidad</t>
+  </si>
+  <si>
+    <t>Permite a los ciudadanos solicitar una reunión o entrevista con personal del Ayuntamiento para tratar temas de interés, presentar quejas, plantear sugerencias o resolver dudas relacionadas con la gestión municipal.</t>
   </si>
   <si>
     <t>C089</t>
@@ -1329,6 +1685,9 @@
 - Real Decreto 1056/2014, de 12 de diciembre, por el que se regulan las condiciones básicas de emisión y uso de la tarjeta de estacionamiento para personas con discapacidad.</t>
   </si>
   <si>
+    <t>Permite a personas con discapacidad solicitar una tarjeta de aparcamiento que les facilite el estacionamiento en lugares reservados para personas con movilidad reducida, cumpliendo con los requisitos establecidos por la normativa de accesibilidad.</t>
+  </si>
+  <si>
     <t>C090</t>
   </si>
   <si>
@@ -1340,17 +1699,107 @@
 - Referencia catastral del inmueble</t>
   </si>
   <si>
+    <t>Este trámite permite solicitar la renumeración o la denominación de una vía pública, como una calle o plaza, para adaptarse a cambios en la planificación urbana o a nuevas circunstancias sociales o administrativas.</t>
+  </si>
+  <si>
     <t>C091</t>
   </si>
   <si>
     <t>Solicitudes de Información Accesible y Quejas</t>
+  </si>
+  <si>
+    <t>Permite a los ciudadanos presentar quejas o solicitudes de información accesible cuando los servicios municipales no cumplen con los requisitos de accesibilidad, garantizando el derecho a la información y la inclusión.</t>
+  </si>
+  <si>
+    <t>Diagrama</t>
+  </si>
+  <si>
+    <t>flowchart TD
+    A[Inicio] --&gt; B{¿Solicitud válida?}
+    B -- Sí --&gt; C[Tramitación administrativa]
+    B -- No --&gt; D[Requerimiento de subsanación]
+    C --&gt; E[Resolución]
+    E --&gt; F{¿Silencio administrativo?}
+    F -- Positivo --&gt; G[Se estima]
+    F -- Negativo --&gt; H[Se desestima]</t>
+  </si>
+  <si>
+    <t>flowchart TD
+%% INICIO Y ORDENACIÓN
+start([Forma de iniciación])
+start --&gt; tipo{¿A solicitud o de oficio?}
+tipo --&gt;|A solicitud| A01[Recepción solicitud]
+tipo --&gt;|De oficio| A11[Acuerdo de incoación de expediente]
+A01 --&gt; A11[Acuerdo de incoación de expediente]
+A11 --&gt; A03[Dar de alta expediente]
+A03 --&gt; A04[Incorporar datos de registro]
+A04 --&gt; A05{¿Existen actuaciones previas?}
+A05 --&gt;|Sí| A06[Incorporar actuaciones previas al expediente]
+A05 --&gt;|No| A07[Revisar solicitud y documentación complementaria]
+A06 --&gt; A07
+A07 --&gt; A08{¿Completa y conforme?}
+A08 --&gt;|No| A09[Subsanación]
+A09 --&gt; A10{¿Recibida en plazo y correcta?}
+A10 --&gt;|No| A11b[Archivo]
+A11b --&gt; A12[Notificación]
+A10 --&gt;|Sí| A13[Incorporar documentación al expediente]
+A08 --&gt;|Sí| A13
+A13 --&gt; A14{¿Procede incorporar actuaciones previas?}
+A14 --&gt;|Sí| A15[Incorporar documentación de actuaciones previas]
+A14 --&gt;|No| A16[Dar de alta expediente]
+A15 --&gt; A16
+%% INSTRUCCIÓN
+A16 --&gt; B01[Solicitud informes internos]
+B01 --&gt; B02[Trámite de audiencia]
+B02 --&gt; B03{¿Se solicita práctica de pruebas?}
+B03 --&gt;|Sí| B04[Resolución motivada de rechazo]
+B04 --&gt; B05[Notificación]
+B05 --&gt; B06[Propuesta de resolución]
+B03 --&gt;|No| B06
+B06 --&gt; B07{¿Indemnización ≥ 50.000€?}
+B07 --&gt;|Sí| B08[Solicitud dictamen Consejo de Estado]
+B08 --&gt; B09[Recepción informe Consejo de Estado]
+B09 --&gt; B10[Notificación propuesta resolución]
+B07 --&gt;|No| B10
+B10 --&gt; B11{¿Se estiman pretensiones del reclamante?}
+B11 --&gt;|Sí| B12[Solicitud aportación certificada nº cuenta]
+B12 --&gt; B13[Incorporar fiscalización de la IGAE]
+B13 --&gt; B14[Redacción propuesta resolución definitiva]
+B14 --&gt; C01[Resolución]
+B11 --&gt;|No| C01
+%% TERMINACIÓN
+C01 --&gt; C02{¿Se solicitó dictamen al Consejo de Estado?}
+C02 --&gt;|Sí| C03[Comunicar resolución al Consejo de Estado]
+C03 --&gt; C04[Notificación al interesado]
+C02 --&gt;|No| C04
+C04 --&gt; C05[Archivo]</t>
+  </si>
+  <si>
+    <t>flowchart TD
+    IP([Inicio del procedimiento])
+    IP --&gt; A01[Incorporar solicitud del/de la interesado]
+    A01 --&gt; A02[Generar comunicación de inicio]
+    A02 --&gt; D1{¿Es necesario subsanar?}
+    D1 -- Sí --&gt; MS[Subsanación de solicitud]
+    MS --&gt; D2{¿Es necesario mejorar la solicitud?}
+    D2 -- Sí --&gt; MM[Módulo mejora solicitud]
+    MM --&gt; F1[Fase 1: Fin]
+    D2 -- No --&gt; F1
+    D1 -- No --&gt; D2
+    F1 --&gt; B1{¿Se solicitó informe de secretaría?}
+    B1 -- Sí --&gt; G01[Generar informe de secretaría]
+    G01 --&gt; F2[Fase 2: Fin]
+    B1 -- No --&gt; F2
+    F2 --&gt; C01[Generar resolución de Alcaldía]
+    C01 --&gt; C02[Generar notificación de resolución]
+    C02 --&gt; FP([Fin del procedimiento])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,7 +1876,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1464,26 +1913,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1503,16 +1932,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1550,32 +1988,41 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,7 +2093,101 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>886810</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1299601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>420203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3029E52C-F967-448F-1BE0-039EECA0AA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23648276" y="131380"/>
+          <a:ext cx="2991109" cy="288823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1412328</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433806</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2609315C-2610-7C9D-F970-3758C7FECA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26752112" y="0"/>
+          <a:ext cx="515918" cy="485436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Beatriz Pintón Riesgo" id="{323F90E5-7893-40A3-AA66-2FA4808B181F}" userId="S::bpinton@laberit.com::caeca6c6-323f-4761-9e88-36e79af12d1f" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1934,1610 +2475,3327 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F4" dT="2025-04-16T10:44:21.32" personId="{323F90E5-7893-40A3-AA66-2FA4808B181F}" id="{B0CC79D3-238F-40DB-8F09-2574EA80291D}">
+    <text>Descripción tentativa a propuesta de la empresa Adjudicataria. 
+Sujeto a revisión.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="58" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="8"/>
     <col min="2" max="2" width="52.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="77.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="19" style="17" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="50.28515625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" ht="31.15" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="273.60000000000002">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="330" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="129.6">
+        <v>17</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="244.9">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" ht="255" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" ht="307.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" ht="285" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="18"/>
+    </row>
+    <row r="39" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="18"/>
+    </row>
+    <row r="49" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="18"/>
+    </row>
+    <row r="58" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="18"/>
+    </row>
+    <row r="60" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="18"/>
+    </row>
+    <row r="63" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="18"/>
+    </row>
+    <row r="64" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="18"/>
+    </row>
+    <row r="65" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="18"/>
+    </row>
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="18"/>
+    </row>
+    <row r="67" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="18"/>
+    </row>
+    <row r="68" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="18"/>
+    </row>
+    <row r="69" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="18"/>
+    </row>
+    <row r="70" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="18"/>
+    </row>
+    <row r="71" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="18"/>
+    </row>
+    <row r="76" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="18"/>
+    </row>
+    <row r="77" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="18"/>
+    </row>
+    <row r="78" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="18"/>
+    </row>
+    <row r="80" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="18"/>
+    </row>
+    <row r="81" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="18"/>
+    </row>
+    <row r="82" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="18"/>
+    </row>
+    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="18"/>
+    </row>
+    <row r="84" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="18"/>
+    </row>
+    <row r="85" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="18"/>
+    </row>
+    <row r="86" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="18"/>
+    </row>
+    <row r="87" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="18"/>
+    </row>
+    <row r="88" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="18"/>
+    </row>
+    <row r="89" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="18"/>
+    </row>
+    <row r="91" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E91" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.6">
-      <c r="A8" s="7" t="s">
+      <c r="F91" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="18"/>
+    </row>
+    <row r="92" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="18"/>
+    </row>
+    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="18"/>
+    </row>
+    <row r="94" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="230.45">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="216">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="100.9">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="129.6">
-      <c r="A12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="86.45">
-      <c r="A13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="187.15">
-      <c r="A14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.15">
-      <c r="A15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57.6">
-      <c r="A17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="158.44999999999999">
-      <c r="A19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="259.14999999999998">
-      <c r="A21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="86.45">
-      <c r="A22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="72">
-      <c r="A23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="129.6">
-      <c r="A24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.15">
-      <c r="A25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="100.9">
-      <c r="A26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="43.15">
-      <c r="A27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="158.44999999999999">
-      <c r="A28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="144">
-      <c r="A29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="43.15">
-      <c r="A30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.9">
-      <c r="A31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="43.15">
-      <c r="A32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.15">
-      <c r="A33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="129.6">
-      <c r="A34" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="86.45">
-      <c r="A35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="216">
-      <c r="A36" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="57.6">
-      <c r="A37" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="72">
-      <c r="A38" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="129.6">
-      <c r="A39" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="72">
-      <c r="A40" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="115.15">
-      <c r="A41" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="57.6">
-      <c r="A42" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="43.15">
-      <c r="A43" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="100.9">
-      <c r="A45" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="86.45">
-      <c r="A46" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.9">
-      <c r="A47" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="374.45">
-      <c r="A48" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="57.6">
-      <c r="A49" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="409.6">
-      <c r="A50" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="409.6">
-      <c r="A51" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="43.15">
-      <c r="A52" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="244.9">
-      <c r="A53" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="100.9">
-      <c r="A54" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="129.6">
-      <c r="A55" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="201.6">
-      <c r="A56" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="129.6">
-      <c r="A57" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="57.6">
-      <c r="A58" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="201.6">
-      <c r="A59" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="201.6">
-      <c r="A60" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="28.9">
-      <c r="A61" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="86.45">
-      <c r="A62" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="100.9">
-      <c r="A63" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="137.25">
-      <c r="A64" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="144">
-      <c r="A65" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="57.6">
-      <c r="A66" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="86.45">
-      <c r="A67" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="86.45">
-      <c r="A68" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="172.9">
-      <c r="A69" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="331.15">
-      <c r="A70" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.9">
-      <c r="A71" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="172.9">
-      <c r="A72" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="187.15">
-      <c r="A73" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="86.45">
-      <c r="A74" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="57.6">
-      <c r="A75" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="43.15">
-      <c r="A76" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="115.15">
-      <c r="A77" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="259.14999999999998">
-      <c r="A78" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="28.9">
-      <c r="A79" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="57.6">
-      <c r="A80" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="230.45">
-      <c r="A81" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="43.15">
-      <c r="A82" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="28.9">
-      <c r="A83" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="331.15">
-      <c r="A84" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="144">
-      <c r="A85" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="144">
-      <c r="A86" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="100.9">
-      <c r="A87" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="129.6">
-      <c r="A88" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="28.9">
-      <c r="A89" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="409.6">
-      <c r="A90" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="28.9">
-      <c r="A91" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="201.6">
-      <c r="A92" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="43.15">
-      <c r="A93" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="86.45">
-      <c r="A94" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>49</v>
-      </c>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C58F6703F7502A4ABA041BA08E058CB5" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0a7bdf8f8dba2d8dfd3566c2ae0d640">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="214e593f-8826-4092-9553-8e5f0a9830da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8480edd542463234a257ec6551b03275" ns2:_="">
     <xsd:import namespace="214e593f-8826-4092-9553-8e5f0a9830da"/>
@@ -3681,23 +5939,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F69C9FCA-76CD-4D5C-B808-182DE8F1DFB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3EE54FE-ED95-48FA-B2E4-01884B918B6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ED92F41-E452-4B37-AD24-5393C4E9E8CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2F4664-37E2-421A-9F94-B98D5961CA6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40F8320-2BD5-423D-90BF-949ED5A18D6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49E4FDD-A15F-4FD3-90C5-B06B14E1E4A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="214e593f-8826-4092-9553-8e5f0a9830da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>